--- a/9. PDU TARUNA N(A4 KUNING) T(A4 PINK MUDA) ETO(A4 ORANGE)/UKURAN.xlsx
+++ b/9. PDU TARUNA N(A4 KUNING) T(A4 PINK MUDA) ETO(A4 ORANGE)/UKURAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\9. PDU TARUNA N(A4 KUNING) T(A4 PINK MUDA) ETO(A4 ORANGE)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72EA1E-4C7C-48CD-BC66-DA62A1A03AF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4E8877-82E0-4E24-B9C0-395C67AF200D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,10 +1219,10 @@
     <t>JEREMYA PANGALO</t>
   </si>
   <si>
-    <t>BLM CETAK</t>
-  </si>
-  <si>
     <t>double dengan no b43</t>
+  </si>
+  <si>
+    <t>15 MARET 2021</t>
   </si>
 </sst>
 </file>
@@ -1666,9 +1666,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1677,6 +1674,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB164" sqref="AB164"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z91" sqref="Z91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9621,9 +9621,11 @@
       <c r="Y91" s="4">
         <v>100</v>
       </c>
-      <c r="Z91" s="16"/>
+      <c r="Z91" s="16">
+        <v>3</v>
+      </c>
       <c r="AA91" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -13129,7 +13131,7 @@
       <c r="E134" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F134" s="61" t="s">
+      <c r="F134" s="60" t="s">
         <v>391</v>
       </c>
       <c r="G134" s="54">
@@ -17530,22 +17532,22 @@
       <c r="C163" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="D163" s="62" t="s">
+      <c r="D163" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E163" s="61" t="s">
+      <c r="E163" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F163" s="61" t="s">
+      <c r="F163" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="G163" s="63">
+      <c r="G163" s="62">
         <v>43</v>
       </c>
       <c r="H163" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="I163" s="63">
+      <c r="I163" s="62">
         <v>56</v>
       </c>
       <c r="J163" s="57">
@@ -17603,7 +17605,7 @@
         <v>368</v>
       </c>
       <c r="AB163" s="51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC163" s="51"/>
       <c r="AD163" s="51"/>
@@ -21417,13 +21419,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
@@ -21432,10 +21434,10 @@
       <c r="B3" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="35" t="s">
         <v>350</v>
       </c>
